--- a/biology/Zoologie/Gros-bec_voisin/Gros-bec_voisin.xlsx
+++ b/biology/Zoologie/Gros-bec_voisin/Gros-bec_voisin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycerobas affinis
 Le Gros-bec voisin (Mycerobas affinis) est une espèce de passereaux appartenant à la famille des Fringillidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord du Pakistan, nord-ouest de l’Inde, Cachemire et toute la chaîne himalayenne (Himachal Pradesh, Népal, Bhoutan, Arunachal Pradesh) jusque dans l’ouest de la Chine (Seutchouan) et le nord du Myanmar. Hiverne dans le nord, le centre et l’ouest du Myanmar.
 Un spécimen a été observé en janvier 1986 dans le nord de la Thaïlande et plusieurs en 2005-2006 dans le Singalila National Park dans le Bengale Occidental.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il affectionne les forêts de chênes, de rhododendrons ou mixtes de conifères et de
 feuillus à larges feuilles, errant occasionnellement dans les rhododendrons nains et les
@@ -578,7 +594,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire se compose de graines d’arbres (charme Carpinus sp., pin du Yunnan Pinus yunnanensis), de fruits à coque et autres fructifications à enveloppe ligneuse, de baies d’argousier Hippophae rhamnoides et d’insectes.
 </t>
@@ -609,7 +627,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gros-bec fréquente aussi bien la ramure des arbres que le niveau du sol pour rechercher sa nourriture. Hors période de reproduction, il constitue de petits groupes et se déplace dans un vol lourd et sinusoïdal. Il semble qu’il forme des groupes du même sexe pour jucher.
 </t>
@@ -640,7 +660,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid et les œufs n’ont, à ce jour, jamais été décrits, les rares observations suggérant une nidification en mai-juin.
 </t>
